--- a/MPEDG/Traffic_info.xlsx
+++ b/MPEDG/Traffic_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uillinoisedu-my.sharepoint.com/personal/aravind4_illinois_edu/Documents/CCAT Report/CCAT_2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johannc2\Box\05 Repositories\DesignLab\MPEDG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{0F380E2D-8BC3-2342-80FE-9F15377C64A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{97B6F783-5192-4F92-98BC-8ADDAF51C2B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC13007-90A9-4FC3-A5D1-D2819F025D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31260" yWindow="1620" windowWidth="21600" windowHeight="13440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AMDTT" sheetId="8" r:id="rId1"/>
@@ -33,6 +33,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Cardenas Huaman, Johann</author>
+  </authors>
+  <commentList>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{0831BD16-BA4D-4F27-A557-034ED0632DEC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>12 kips</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -93,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +150,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,11 +176,142 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -143,14 +321,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -167,6 +395,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,457 +676,457 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
         <v>100</v>
       </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>100</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>100</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>100</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <v>100</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>100</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>100</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <v>100</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>100</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
         <v>100</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
         <v>100</v>
       </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="B13" s="8">
+        <v>0</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
         <v>100</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
         <v>0</v>
       </c>
     </row>
@@ -907,19 +1139,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="13">
         <v>3000</v>
       </c>
     </row>
@@ -932,139 +1164,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
         <v>0</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>2</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9">
         <v>0</v>
       </c>
       <c r="D11" s="2"/>
@@ -1078,100 +1310,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="7">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="9">
         <v>0</v>
       </c>
     </row>
@@ -1182,11 +1415,1466 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>2500</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>7500</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>12500</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>17500</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>22500</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>27500</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>32500</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>37500</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>42500</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>47500</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>53378</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>100</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>57500</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>62500</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>67500</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>72500</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>77500</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>82500</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>87500</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>92500</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>97500</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>102500</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>107500</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>112500</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>117500</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>122500</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>127500</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>132500</v>
+      </c>
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>137500</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>142500</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>147500</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>152500</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>157500</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>162500</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>167500</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>172500</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>177500</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="18">
+        <v>182500</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="18">
+        <v>187500</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="18">
+        <v>192500</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>197500</v>
+      </c>
+      <c r="B41" s="8">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8">
+        <v>0</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,1460 +2919,6 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2500</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7500</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>12500</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>17500</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>22500</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>27500</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>32500</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>37500</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>42500</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>47500</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>53378</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>100</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>57500</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>62500</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>67500</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>72500</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>77500</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>82500</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>87500</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>92500</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>97500</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>102500</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>107500</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>112500</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>117500</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>122500</v>
-      </c>
-      <c r="B26" s="2">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>127500</v>
-      </c>
-      <c r="B27" s="2">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>132500</v>
-      </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>137500</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>142500</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>147500</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>152500</v>
-      </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>157500</v>
-      </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>162500</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>167500</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>0</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
-        <v>0</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>172500</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>177500</v>
-      </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>182500</v>
-      </c>
-      <c r="B38" s="2">
-        <v>0</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>187500</v>
-      </c>
-      <c r="B39" s="2">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>192500</v>
-      </c>
-      <c r="B40" s="2">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>197500</v>
-      </c>
-      <c r="B41" s="2">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
         <v>5000</v>
       </c>
       <c r="B2" s="2">
@@ -2859,7 +3093,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>104533</v>
       </c>
       <c r="B7" s="2">
@@ -2894,7 +3128,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>111206</v>
       </c>
       <c r="B8" s="2">
@@ -2929,7 +3163,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>106757</v>
       </c>
       <c r="B9" s="2">
@@ -2964,7 +3198,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>115653</v>
       </c>
       <c r="B10" s="2">
@@ -2999,7 +3233,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>120101</v>
       </c>
       <c r="B11" s="2">
@@ -3034,7 +3268,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>122326</v>
       </c>
       <c r="B12" s="2">
@@ -3069,7 +3303,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>124550</v>
       </c>
       <c r="B13" s="2">
@@ -3104,7 +3338,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>133446</v>
       </c>
       <c r="B14" s="2">
@@ -3139,7 +3373,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>137894</v>
       </c>
       <c r="B15" s="2">
@@ -3174,7 +3408,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>142343</v>
       </c>
       <c r="B16" s="2">
@@ -3209,7 +3443,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>151239</v>
       </c>
       <c r="B17" s="2">
@@ -3244,7 +3478,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>146791</v>
       </c>
       <c r="B18" s="2">
@@ -3279,7 +3513,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>128998</v>
       </c>
       <c r="B19" s="2">
